--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H2">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I2">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J2">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.916802666666666</v>
+        <v>4.002008666666667</v>
       </c>
       <c r="N2">
-        <v>5.750407999999999</v>
+        <v>12.006026</v>
       </c>
       <c r="O2">
-        <v>0.3865473586068074</v>
+        <v>0.4834231243738785</v>
       </c>
       <c r="P2">
-        <v>0.3865473586068073</v>
+        <v>0.4834231243738787</v>
       </c>
       <c r="Q2">
-        <v>55.50347983222044</v>
+        <v>182.9557855172409</v>
       </c>
       <c r="R2">
-        <v>499.531318489984</v>
+        <v>1646.602069655168</v>
       </c>
       <c r="S2">
-        <v>0.2122552494773884</v>
+        <v>0.316593946151847</v>
       </c>
       <c r="T2">
-        <v>0.2122552494773884</v>
+        <v>0.3165939461518472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H3">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I3">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J3">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.041975666666667</v>
+        <v>4.265473333333333</v>
       </c>
       <c r="N3">
-        <v>9.125927000000001</v>
+        <v>12.79642</v>
       </c>
       <c r="O3">
-        <v>0.6134526413931928</v>
+        <v>0.5152483708764571</v>
       </c>
       <c r="P3">
-        <v>0.6134526413931927</v>
+        <v>0.5152483708764573</v>
       </c>
       <c r="Q3">
-        <v>88.08430726912179</v>
+        <v>195.0003334082845</v>
       </c>
       <c r="R3">
-        <v>792.7587654220961</v>
+        <v>1755.00300067456</v>
       </c>
       <c r="S3">
-        <v>0.3368501699527121</v>
+        <v>0.3374363094346471</v>
       </c>
       <c r="T3">
-        <v>0.3368501699527121</v>
+        <v>0.3374363094346473</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.691493</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H4">
-        <v>38.074479</v>
+        <v>137.147968</v>
       </c>
       <c r="I4">
-        <v>0.2406720388519202</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J4">
-        <v>0.2406720388519202</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.916802666666666</v>
+        <v>0.010998</v>
       </c>
       <c r="N4">
-        <v>5.750407999999999</v>
+        <v>0.032994</v>
       </c>
       <c r="O4">
-        <v>0.3865473586068074</v>
+        <v>0.001328504749664189</v>
       </c>
       <c r="P4">
-        <v>0.3865473586068073</v>
+        <v>0.00132850474966419</v>
       </c>
       <c r="Q4">
-        <v>24.32708762638133</v>
+        <v>0.502784450688</v>
       </c>
       <c r="R4">
-        <v>218.943788637432</v>
+        <v>4.525060056192</v>
       </c>
       <c r="S4">
-        <v>0.09303114090872466</v>
+        <v>0.0008700381507864502</v>
       </c>
       <c r="T4">
-        <v>0.09303114090872466</v>
+        <v>0.0008700381507864506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,10 +729,10 @@
         <v>38.074479</v>
       </c>
       <c r="I5">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J5">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.041975666666667</v>
+        <v>4.002008666666667</v>
       </c>
       <c r="N5">
-        <v>9.125927000000001</v>
+        <v>12.006026</v>
       </c>
       <c r="O5">
-        <v>0.6134526413931928</v>
+        <v>0.4834231243738785</v>
       </c>
       <c r="P5">
-        <v>0.6134526413931927</v>
+        <v>0.4834231243738787</v>
       </c>
       <c r="Q5">
-        <v>38.60721287967034</v>
+        <v>50.79146497893933</v>
       </c>
       <c r="R5">
-        <v>347.464915917033</v>
+        <v>457.1231848104539</v>
       </c>
       <c r="S5">
-        <v>0.1476408979431955</v>
+        <v>0.08789156507434097</v>
       </c>
       <c r="T5">
-        <v>0.1476408979431955</v>
+        <v>0.08789156507434098</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,51 +785,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.59691233333333</v>
+        <v>12.691493</v>
       </c>
       <c r="H6">
-        <v>31.790737</v>
+        <v>38.074479</v>
       </c>
       <c r="I6">
-        <v>0.200951968125294</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J6">
-        <v>0.200951968125294</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.916802666666666</v>
+        <v>4.265473333333333</v>
       </c>
       <c r="N6">
-        <v>5.750407999999999</v>
+        <v>12.79642</v>
       </c>
       <c r="O6">
-        <v>0.3865473586068074</v>
+        <v>0.5152483708764571</v>
       </c>
       <c r="P6">
-        <v>0.3865473586068073</v>
+        <v>0.5152483708764573</v>
       </c>
       <c r="Q6">
-        <v>20.31218981896622</v>
+        <v>54.13522495168667</v>
       </c>
       <c r="R6">
-        <v>182.809708370696</v>
+        <v>487.2170245651799</v>
       </c>
       <c r="S6">
-        <v>0.07767745248567176</v>
+        <v>0.0936777399239847</v>
       </c>
       <c r="T6">
-        <v>0.07767745248567175</v>
+        <v>0.0936777399239847</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.59691233333333</v>
+        <v>12.691493</v>
       </c>
       <c r="H7">
-        <v>31.790737</v>
+        <v>38.074479</v>
       </c>
       <c r="I7">
-        <v>0.200951968125294</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J7">
-        <v>0.200951968125294</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>3.041975666666667</v>
+        <v>0.010998</v>
       </c>
       <c r="N7">
-        <v>9.125927000000001</v>
+        <v>0.032994</v>
       </c>
       <c r="O7">
-        <v>0.6134526413931928</v>
+        <v>0.001328504749664189</v>
       </c>
       <c r="P7">
-        <v>0.6134526413931927</v>
+        <v>0.00132850474966419</v>
       </c>
       <c r="Q7">
-        <v>32.2355494597999</v>
+        <v>0.139581040014</v>
       </c>
       <c r="R7">
-        <v>290.119945138199</v>
+        <v>1.256229360126</v>
       </c>
       <c r="S7">
-        <v>0.1232745156396223</v>
+        <v>0.0002415365665593932</v>
       </c>
       <c r="T7">
-        <v>0.1232745156396223</v>
+        <v>0.0002415365665593933</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4888703333333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H8">
-        <v>1.466611</v>
+        <v>33.74354</v>
       </c>
       <c r="I8">
-        <v>0.009270573592685365</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J8">
-        <v>0.009270573592685367</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.916802666666666</v>
+        <v>4.002008666666667</v>
       </c>
       <c r="N8">
-        <v>5.750407999999999</v>
+        <v>12.006026</v>
       </c>
       <c r="O8">
-        <v>0.3865473586068074</v>
+        <v>0.4834231243738785</v>
       </c>
       <c r="P8">
-        <v>0.3865473586068073</v>
+        <v>0.4834231243738787</v>
       </c>
       <c r="Q8">
-        <v>0.9370679585875553</v>
+        <v>45.01397984133778</v>
       </c>
       <c r="R8">
-        <v>8.433611627287998</v>
+        <v>405.12581857204</v>
       </c>
       <c r="S8">
-        <v>0.003583515735022549</v>
+        <v>0.07789397569297342</v>
       </c>
       <c r="T8">
-        <v>0.003583515735022549</v>
+        <v>0.07789397569297345</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4888703333333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H9">
-        <v>1.466611</v>
+        <v>33.74354</v>
       </c>
       <c r="I9">
-        <v>0.009270573592685365</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J9">
-        <v>0.009270573592685367</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.041975666666667</v>
+        <v>4.265473333333333</v>
       </c>
       <c r="N9">
-        <v>9.125927000000001</v>
+        <v>12.79642</v>
       </c>
       <c r="O9">
-        <v>0.6134526413931928</v>
+        <v>0.5152483708764571</v>
       </c>
       <c r="P9">
-        <v>0.6134526413931927</v>
+        <v>0.5152483708764573</v>
       </c>
       <c r="Q9">
-        <v>1.487131658155222</v>
+        <v>47.97739001408889</v>
       </c>
       <c r="R9">
-        <v>13.384184923397</v>
+        <v>431.7965101267999</v>
       </c>
       <c r="S9">
-        <v>0.005687057857662818</v>
+        <v>0.08302197816638736</v>
       </c>
       <c r="T9">
-        <v>0.005687057857662818</v>
+        <v>0.08302197816638739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.24784666666667</v>
+      </c>
+      <c r="H10">
+        <v>33.74354</v>
+      </c>
+      <c r="I10">
+        <v>0.161130015850732</v>
+      </c>
+      <c r="J10">
+        <v>0.161130015850732</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.010998</v>
+      </c>
+      <c r="N10">
+        <v>0.032994</v>
+      </c>
+      <c r="O10">
+        <v>0.001328504749664189</v>
+      </c>
+      <c r="P10">
+        <v>0.00132850474966419</v>
+      </c>
+      <c r="Q10">
+        <v>0.12370381764</v>
+      </c>
+      <c r="R10">
+        <v>1.11333435876</v>
+      </c>
+      <c r="S10">
+        <v>0.0002140619913711635</v>
+      </c>
+      <c r="T10">
+        <v>0.0002140619913711636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1507006666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.452102</v>
+      </c>
+      <c r="I11">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="J11">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.002008666666667</v>
+      </c>
+      <c r="N11">
+        <v>12.006026</v>
+      </c>
+      <c r="O11">
+        <v>0.4834231243738785</v>
+      </c>
+      <c r="P11">
+        <v>0.4834231243738787</v>
+      </c>
+      <c r="Q11">
+        <v>0.6031053740724445</v>
+      </c>
+      <c r="R11">
+        <v>5.427948366652</v>
+      </c>
+      <c r="S11">
+        <v>0.001043637454717101</v>
+      </c>
+      <c r="T11">
+        <v>0.001043637454717101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1507006666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.452102</v>
+      </c>
+      <c r="I12">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="J12">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.265473333333333</v>
+      </c>
+      <c r="N12">
+        <v>12.79642</v>
+      </c>
+      <c r="O12">
+        <v>0.5152483708764571</v>
+      </c>
+      <c r="P12">
+        <v>0.5152483708764573</v>
+      </c>
+      <c r="Q12">
+        <v>0.6428096749822223</v>
+      </c>
+      <c r="R12">
+        <v>5.785287074839999</v>
+      </c>
+      <c r="S12">
+        <v>0.001112343351437937</v>
+      </c>
+      <c r="T12">
+        <v>0.001112343351437937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1507006666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.452102</v>
+      </c>
+      <c r="I13">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="J13">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.010998</v>
+      </c>
+      <c r="N13">
+        <v>0.032994</v>
+      </c>
+      <c r="O13">
+        <v>0.001328504749664189</v>
+      </c>
+      <c r="P13">
+        <v>0.00132850474966419</v>
+      </c>
+      <c r="Q13">
+        <v>0.001657405932</v>
+      </c>
+      <c r="R13">
+        <v>0.014916653388</v>
+      </c>
+      <c r="S13">
+        <v>2.868040947182358E-06</v>
+      </c>
+      <c r="T13">
+        <v>2.868040947182359E-06</v>
       </c>
     </row>
   </sheetData>
